--- a/biology/Zoologie/Dragonnet_réticulé/Dragonnet_réticulé.xlsx
+++ b/biology/Zoologie/Dragonnet_réticulé/Dragonnet_réticulé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dragonnet_r%C3%A9ticul%C3%A9</t>
+          <t>Dragonnet_réticulé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dragonnet réticulé
-Callionymus reticulatus, communément appelé le Dragonnet réticulé[1], est une espèce de poissons marins de la famille des Callionymidae.
+Callionymus reticulatus, communément appelé le Dragonnet réticulé, est une espèce de poissons marins de la famille des Callionymidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dragonnet_r%C3%A9ticul%C3%A9</t>
+          <t>Dragonnet_réticulé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Callionymus reticulatus a été décrite en 1837 par le zoologiste français Achille Valenciennes (1794-1865).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dragonnet_r%C3%A9ticul%C3%A9</t>
+          <t>Dragonnet_réticulé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Dragonnet réticulé est présent dans l'Atlantique nord-est, de la mer du Nord à l'Espagne, ainsi que dans la partie ouest de la Méditerranée[1]. Il est présent jusqu'à une profondeur de 110 m[1]. Il a été observé en Suède en 2012[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Dragonnet réticulé est présent dans l'Atlantique nord-est, de la mer du Nord à l'Espagne, ainsi que dans la partie ouest de la Méditerranée. Il est présent jusqu'à une profondeur de 110 m. Il a été observé en Suède en 2012.
 </t>
         </is>
       </c>
